--- a/交维文档第四版/测试方案.xlsx
+++ b/交维文档第四版/测试方案.xlsx
@@ -580,15 +580,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1、 在客户端创建零时备份目录/backup
-2、 在服务器端创建临时备份目录/backup
-3、 在客户端/backup目录创建测试文件，执行命令touch stu{01..100}
-4、执行ls命令查看文件是否创建成功
-5、执行rsync命令同步测试文件
-[root@nfs01 backup]# rsync -avz /backup/ </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>负载均衡测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -605,13 +596,6 @@
 2、 客户端备份目录/backup下测试文件创建成功
 3、文件成功同步到服务器
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、在主机1上执行 service mysqld stop 关闭主机1的数据库，登陆客户管理服务，点击账号系统-&gt;账号管理-&gt;编辑客户信息-&gt;修改联系人姓名并保存，
-    查看主机2上MySQL common_customer表中contactName是否修改；
-2、在主机1上执行 service mysqld start,观察在主机1关闭期间，写入到主机2的MySQL common_customer表中contactName是否已同步到主机一数据库中；
-3、在主机2上执行 service mysqld stop,再次修改联系人姓名并保存，查看主机1中MySQL common_customer表中contactName是否修改；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -705,6 +689,35 @@
     <t>1.模拟master故障
 2.
 3.在浏览器打开运营门户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">说明：
+ TS ：完成检查的时间 
+ERRORS ：检查时候发生错误和警告的数量 
+DIFFS ：0表示一致，1表示不一致。当指定–no-replicate-check时，会一直为0，当指定–replicate-check-only会显示不同的信息 
+ROWS ：表的行数 
+CHUNKS ：被划分到表中的块的数目 
+SKIPPED ：由于错误或警告或过大，则跳过块的数目 
+TIME ：执行的时间 
+TABLE ：被检查的表名
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、在主机1上执行 service mysqld stop 关闭主机1的数据库，登陆客户管理服务，点击账号系统-&gt;账号管理-&gt;编辑客户信息-&gt;修改联系人姓名并保存，
+    查看主机2上MySQL common_customer表中contactName是否修改；
+2、在主机1上执行 service mysqld start,观察在主机1关闭期间，写入到主机2的MySQL common_customer表中contactName是否已同步到主机一数据库中；
+3、在主机2上执行 service mysqld stop,再次修改联系人姓名并保存，查看主机1中MySQL common_customer表中contactName是否修改；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、 在客户端创建零时备份目录/backup
+2、 在服务器端创建临时备份目录/backup
+3、 在客户端/backup目录创建测试文件，执行命令touch stu{01..100}
+4、执行ls命令查看文件是否创建成功
+5、执行rsync命令同步测试文件
+[root@nfs01 backup]# rsync -avz /backup/ </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -758,19 +771,6 @@
 3.执行命令
 </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">说明：
- TS ：完成检查的时间 
-ERRORS ：检查时候发生错误和警告的数量 
-DIFFS ：0表示一致，1表示不一致。当指定–no-replicate-check时，会一直为0，当指定–replicate-check-only会显示不同的信息 
-ROWS ：表的行数 
-CHUNKS ：被划分到表中的块的数目 
-SKIPPED ：由于错误或警告或过大，则跳过块的数目 
-TIME ：执行的时间 
-TABLE ：被检查的表名
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -847,12 +847,18 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -933,7 +939,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -969,6 +975,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1265,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1308,7 +1321,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1323,37 +1336,37 @@
         <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="55.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="15" customFormat="1" ht="55.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="70.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="15" customFormat="1" ht="70.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>69</v>
+      <c r="E5" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="106" customHeight="1" x14ac:dyDescent="0.2">
@@ -1368,7 +1381,7 @@
         <v>37</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="109" customHeight="1" x14ac:dyDescent="0.2">
@@ -1383,7 +1396,7 @@
         <v>35</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="107" customHeight="1" x14ac:dyDescent="0.2">
@@ -1398,7 +1411,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.2">
@@ -1413,7 +1426,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.2">
@@ -1428,7 +1441,7 @@
         <v>47</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="168" customHeight="1" x14ac:dyDescent="0.2">
@@ -1443,7 +1456,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="159" customHeight="1" x14ac:dyDescent="0.2">
@@ -1458,7 +1471,7 @@
         <v>37</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="206" customHeight="1" x14ac:dyDescent="0.2">
@@ -1473,7 +1486,7 @@
         <v>51</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="116" customHeight="1" x14ac:dyDescent="0.2">
@@ -1488,7 +1501,7 @@
         <v>51</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="110" customHeight="1" x14ac:dyDescent="0.2">
@@ -1503,7 +1516,7 @@
         <v>37</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="126" customHeight="1" x14ac:dyDescent="0.2">
@@ -1518,22 +1531,22 @@
         <v>43</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="137" customHeight="1" x14ac:dyDescent="0.2">
@@ -1544,13 +1557,13 @@
         <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.2">
@@ -1561,13 +1574,13 @@
         <v>27</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -1584,7 +1597,7 @@
         <v>31</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="409" x14ac:dyDescent="0.2">
@@ -1595,18 +1608,18 @@
         <v>33</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="150" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>55</v>
@@ -1618,41 +1631,41 @@
         <v>56</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="135" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="147" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="211" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="240" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="B24" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">

--- a/交维文档第四版/测试方案.xlsx
+++ b/交维文档第四版/测试方案.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhuifang/Desktop/交维文档第三版/交维文档全部文件及模板最新/交维文档第四版/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC93E2FA-58B7-41C7-A8AB-6DA880BADC84}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,23 +15,23 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C18" authorId="0">
+    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0">
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0">
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -91,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="0">
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -177,26 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.登录服务器切换root用户
-2.执行systemctl stop mysqld</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行ps -ef|grep mysql 没有
-mysql进程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.登录服务器切换root用户
-2.执行systemctl start mysqld</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 执行ps -ef|grep mysql
-mysql进程号存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>命令nginx -s stop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -351,6 +327,7 @@
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>  </t>
     </r>
@@ -415,6 +392,7 @@
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>  </t>
     </r>
@@ -631,6 +609,7 @@
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>  </t>
     </r>
@@ -773,12 +752,33 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1.执行ps -ef|grep mysql 
+2.未输出MySQL进程信息</t>
+  </si>
+  <si>
+    <t>1.用appmanager用户登录MySQL(172.18.56.25,172.18.56.26)服务器
+2.切换root用户，执行sudo -i，输入密码GBhnjm567*
+3.执行systemctl stop mysqld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.用appmanager用户登录MySQL(172.18.56.25,172.18.56.26)服务器
+2.切换root用户，执行sudo -i，输入密码GBhnjm567*
+3.执行systemctl start mysqld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.执行ps -ef|grep mysql
+2.终端输出MySQL进程信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -816,6 +816,7 @@
       <sz val="7"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
@@ -939,7 +940,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -966,6 +967,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -975,13 +983,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1275,22 +1279,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="24.5" customWidth="1"/>
+    <col min="1" max="2" width="24.44140625" customWidth="1"/>
     <col min="3" max="3" width="52.33203125" customWidth="1"/>
-    <col min="4" max="4" width="53.5" customWidth="1"/>
-    <col min="5" max="5" width="39.1640625" customWidth="1"/>
+    <col min="4" max="4" width="53.44140625" customWidth="1"/>
+    <col min="5" max="5" width="39.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="54" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1307,413 +1311,413 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>39</v>
+    <row r="2" spans="1:5" ht="66" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
+      <c r="C2" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="62.4" customHeight="1">
+      <c r="A3" s="14"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="12" customFormat="1" ht="55.8" customHeight="1">
+      <c r="A4" s="14"/>
+      <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="12" customFormat="1" ht="70.8" customHeight="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="15" customFormat="1" ht="55.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="15" customFormat="1" ht="70.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="106" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+      <c r="D5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="106.05" customHeight="1">
+      <c r="A6" s="14"/>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="109" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="109.05" customHeight="1">
+      <c r="A7" s="14"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="107" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="106.95" customHeight="1">
+      <c r="A8" s="14"/>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="66" customHeight="1">
+      <c r="A9" s="14"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="99" customHeight="1">
+      <c r="A10" s="14"/>
       <c r="B10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="168" customHeight="1">
+      <c r="A11" s="14"/>
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="168" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="159" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="159" customHeight="1">
+      <c r="A12" s="14"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="206" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="205.95" customHeight="1">
+      <c r="A13" s="14"/>
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="116" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="115.95" customHeight="1">
+      <c r="A14" s="14"/>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="110" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="109.95" customHeight="1">
+      <c r="A15" s="14"/>
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="126" customHeight="1">
+      <c r="A16" s="14"/>
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="126" customHeight="1">
+      <c r="A17" s="15"/>
+      <c r="B17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="136.94999999999999" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="69" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="D19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="41.4">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="409.6">
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="137" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="E21" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="110.4">
+      <c r="A22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="147" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="211.05" customHeight="1">
+      <c r="A24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="409" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="150" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="D24" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="211" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="B32" s="2"/>
     </row>
   </sheetData>
@@ -1722,6 +1726,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/交维文档第四版/测试方案.xlsx
+++ b/交维文档第四版/测试方案.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC93E2FA-58B7-41C7-A8AB-6DA880BADC84}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCFB780-00C1-48BD-A20B-171A58A2DCF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,11 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>两台mysql数据库都有
-刚才的登录记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>keepadlived测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -646,17 +641,6 @@
 ./run.sh restart prod
 </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.登录运营管理平台
-地址:https://imsapi.vnet.cn:63781/#/home/page
-账号:root 密码:Root123456.
-2.使用登录名isms登录两台mysql数据库服务器
-3.登录mysql
-mysql -u root -p
-4.看两台数据库的login_record
-登陆记录表的数据是否同步</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -771,6 +755,24 @@
   <si>
     <t>1.执行ps -ef|grep mysql
 2.终端输出MySQL进程信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.两台mysql数据库都有
+刚才创建的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.登录运营管理平台
+地址:https://imsapi.vnet.cn:63781/#/home/page
+账号:root 密码:Root123456.
+2.新建一个测试操作员，步骤（系统管理-操作员管理-新建操作员）
+3.分别登录两台mysql(172.18.56.25,172.18.56.26)
+mysql -u root -p
+输入MySQL密码：Zndx2018  回车
+4.切换数据库use ctcc-mcs
+5.分别在两台数据库服务器执行
+SELECT * FROM sys_opt_user s WHERE s.`username` = "刚才创建的用户名";</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1283,7 +1285,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
@@ -1313,19 +1315,19 @@
     </row>
     <row r="2" spans="1:5" ht="66" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="62.4" customHeight="1">
@@ -1334,13 +1336,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="12" customFormat="1" ht="55.8" customHeight="1">
@@ -1355,7 +1357,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="12" customFormat="1" ht="70.8" customHeight="1">
@@ -1367,10 +1369,10 @@
         <v>18</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="106.05" customHeight="1">
@@ -1379,13 +1381,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="109.05" customHeight="1">
@@ -1394,28 +1396,28 @@
         <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="106.95" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="66" customHeight="1">
@@ -1424,43 +1426,43 @@
         <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="99" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="168" customHeight="1">
       <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="159" customHeight="1">
@@ -1469,13 +1471,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="205.95" customHeight="1">
@@ -1484,28 +1486,28 @@
         <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="115.95" customHeight="1">
       <c r="A14" s="14"/>
       <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="109.95" customHeight="1">
@@ -1514,13 +1516,13 @@
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="126" customHeight="1">
@@ -1529,31 +1531,31 @@
         <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="126" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="136.94999999999999" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="204.6" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -1561,115 +1563,115 @@
         <v>20</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="69" customHeight="1">
       <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="C19" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="41.4">
       <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="D20" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="409.6">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="110.4">
       <c r="A22" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="E22" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="147" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="E23" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="211.05" customHeight="1">
       <c r="A24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:5">

--- a/交维文档第四版/测试方案.xlsx
+++ b/交维文档第四版/测试方案.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCFB780-00C1-48BD-A20B-171A58A2DCF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhuifang/Desktop/交维文档第三版/交维文档全部文件及模板最新/交维文档第四版/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,99 +19,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
-          </rPr>
-          <t>缺mysql密码
-缺sql语句
-新建一个运营门户测试用户</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">停止nginx命令
-如何验证备机在工作
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-找运维配置开机自启</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作者：
-具体步骤见***word**目录</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
   <si>
     <t>操作项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,29 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>命令nginx -s stop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nginx进程号不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.进入nginx  sbin目录
-cd    /usr/local/nginx/sbin
-2.执行启动命令
-./nginx -c ../conf/nginx.conf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冗余测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mysql数据冗余测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>keepadlived测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,81 +104,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Nginx是否开机自启动测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看nginx应用启动详情
-ps aux | grep nginx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MySQL主从数据一致性测试</t>
   </si>
   <si>
-    <t>root      5684  0.0  0.0  67360  3452 ?        Ss   10:45   0:00 nginx:
- master process ./nginx -c /usr/local/nginx/conf/nginx.conf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nginx是否开机自启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MySQL主从数据一致性测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.使用登录名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Lucida Grande"/>
-      </rPr>
-      <t>isms</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>登录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Lucida Grande"/>
-      </rPr>
-      <t>API</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">服务器
-2. 进入API项目路径
-3. 执行Shell脚本：
-./run.sh start prod
-</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -288,20 +117,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1. 使用登录名isms登录API服务器
-2. 进入API项目路径
-cd /apps/ctcc-mcs-api
-3. 执行Shell脚本：
-./run.sh stop
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 输出：“关闭程序”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngin进程号存在</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -322,7 +138,6 @@
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t>  </t>
     </r>
@@ -387,7 +202,6 @@
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t>  </t>
     </r>
@@ -432,26 +246,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. 使用登录名isms登录打点服务器
-2. 进入打点项目路径
-cd /apps
-3. 执行Shell脚本：
-./run.sh stop
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 使用登录名isms登录运营门户服务器
-2. 进入运营门户项目路径
-cd /apps/ctcc-mcs-operate
-3. 执行Shell脚本：
-./run.sh start prod
-cd /apps/ctcc-mcs-operate
-2.执行
-./run.sh   stop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>运营管理门户启动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -462,32 +256,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 使用登录名isms登录运营门户服务器
-2. 进入运营门户项目路径
-cd /apps/ctcc-mcs-operate
-3. 执行Shell脚本：
-cd /apps/ctcc-mcs-operate
-2.执行
-./run.sh  stop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>运营管理门户重新启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 使用登录名isms登录运营门户服务器
-2. 进入运营门户项目路径
-cd /apps/ctcc-mcs-operate
-3. 执行Shell脚本：
-./run.sh restart prod
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 输出：
-“启动程序，运行 screen -d -m /usr/bin/java …(JVM参数)… -Dapp.path=/apps/ctcc-mcs-client -Dspring.profiles.active=prod -jar app.jar”
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -504,17 +273,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1. 使用登录名isms登录API服务器
-2. 进入API项目路径
-cd /apps/ctcc-mcs-api/
-3. 执行命令，实时查看日志：
-tail –f logs/ing/sys.log
-4. 重复1-3步，对集群内每台服务器进行操作
-5. 使用Postman工具，对API服务发送10次请求
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>API</t>
     </r>
@@ -565,93 +323,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1、 客户端和服务端备份目录/backup目录创建成功
-2、 客户端备份目录/backup下测试文件创建成功
-3、文件成功同步到服务器
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mysql模拟故障测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>contactName已修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>打点项目重新启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 输出：
-“启动程序，运行 screen -d -m /usr/bin/java …(JVM参数)… -Dapp.path=/apps -Dspring.profiles.active=prod -jar app.jar”
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">□ OK
 □ FAIL
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使用登录名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Lucida Grande"/>
-      </rPr>
-      <t>isms</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">登录打点服务器
-2. 进入打点项目路径
-cd /apps
-3. 执行Shell脚本
-./run.sh restart prod
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-出现登录页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.模拟master故障
-2.
-3.在浏览器打开运营门户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -665,22 +347,6 @@
 TIME ：执行的时间 
 TABLE ：被检查的表名
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、在主机1上执行 service mysqld stop 关闭主机1的数据库，登陆客户管理服务，点击账号系统-&gt;账号管理-&gt;编辑客户信息-&gt;修改联系人姓名并保存，
-    查看主机2上MySQL common_customer表中contactName是否修改；
-2、在主机1上执行 service mysqld start,观察在主机1关闭期间，写入到主机2的MySQL common_customer表中contactName是否已同步到主机一数据库中；
-3、在主机2上执行 service mysqld stop,再次修改联系人姓名并保存，查看主机1中MySQL common_customer表中contactName是否修改；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1、 在客户端创建零时备份目录/backup
-2、 在服务器端创建临时备份目录/backup
-3、 在客户端/backup目录创建测试文件，执行命令touch stu{01..100}
-4、执行ls命令查看文件是否创建成功
-5、执行rsync命令同步测试文件
-[root@nfs01 backup]# rsync -avz /backup/ </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -737,50 +403,313 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>浏览器输入：https://imsapi.vnet.cn:63781/#/home/page
+出现登录页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 使用登录名isms登录API服务器
+2. 进入API项目路径
+cd /apps/ctcc-mcs-api
+3. 执行Shell脚本：
+./run.sh stop
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一、停止172.18.56.25数据库测试
+1、在172.18.56.25上执行 service mysqld stop 关闭172.18.56.25的数据库
+2、登录运营管理平台，地址:https://imsapi.vnet.cn:63781/#/home/page，账号:root 密码:Root123456.
+3、在运营平台新建一个测试操作员，步骤（系统管理-操作员管理-新建操作员）
+4、登录172.18.56.26服务器
+   mysql -u root -p
+   输入MySQL密码：Zndx2018  回车
+5.切换数据库use ctcc-mcs
+6.执行SELECT * FROM sys_opt_user s WHERE s.`username` = "刚才创建的用户名";
+二、在172.18.56.25上执行 service mysqld start,观察172.18.56.25关闭期间，写入到172.18.56.26的MySQL sys_opt_user表中数据是否已同步到主机一数据库中；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.18.56.26数据已同步（查看）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.登陆rsync主服务器172.18.56.27，进入rsync文件同步目录
+  命令：cd /home/devuser/apps/data/
+2.在 /home/devuser/apps/data/ 目录新建测试文件testRsync
+  命令：touch testRsync
+3.分别登陆3台rsync从服务器172.18.56.28，172.18.56.29，172.18.56.30，进入到 /home/devuser/apps/data/ 目录，查看目下是否存在testRsync文件
+  命令：find ./ -name testRsync</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">testRsync文件存在四台服务器
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.执行ps -ef|grep mysql 
 2.未输出MySQL进程信息</t>
-  </si>
-  <si>
-    <t>1.用appmanager用户登录MySQL(172.18.56.25,172.18.56.26)服务器
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.执行ps -ef|grep mysql
+2.终端输出MySQL进程信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.执行ps -ef|grep nginx 
+2.未输出nginx进程信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.执行ps -ef|grep nginx
+2.终端输出nginx进程信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.用isms用户登录MySQL(172.18.56.25,172.18.56.26)服务器
 2.切换root用户，执行sudo -i，输入密码GBhnjm567*
 3.执行systemctl stop mysqld</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.用appmanager用户登录MySQL(172.18.56.25,172.18.56.26)服务器
+    <t>1.用isms用户登录MySQL(172.18.56.25,172.18.56.26)服务器
 2.切换root用户，执行sudo -i，输入密码GBhnjm567*
 3.执行systemctl start mysqld</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.执行ps -ef|grep mysql
-2.终端输出MySQL进程信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.两台mysql数据库都有
-刚才创建的用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.登录运营管理平台
-地址:https://imsapi.vnet.cn:63781/#/home/page
-账号:root 密码:Root123456.
-2.新建一个测试操作员，步骤（系统管理-操作员管理-新建操作员）
-3.分别登录两台mysql(172.18.56.25,172.18.56.26)
-mysql -u root -p
-输入MySQL密码：Zndx2018  回车
-4.切换数据库use ctcc-mcs
-5.分别在两台数据库服务器执行
-SELECT * FROM sys_opt_user s WHERE s.`username` = "刚才创建的用户名";</t>
+    <t xml:space="preserve">
+1.使用登录名isms登录nginx服务器
+2.进入nginx  sbin目录
+cd    /usr/local/nginx/sbin
+3.执行停止命令
+命令nginx -s stop
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.使用登录名isms登录nginx服务器
+2.进入nginx  sbin目录
+cd    /usr/local/nginx/sbin
+3.执行启动命令
+./nginx -c ../conf/nginx.conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.使用登录名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Lucida Grande"/>
+      </rPr>
+      <t>isms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Lucida Grande"/>
+      </rPr>
+      <t>API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">服务器
+2. 进入API项目路径
+3. 执行Shell脚本：
+./run.sh start prod
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 输出：
+“启动程序，运行 screen -d -m /usr/bin/java …(JVM参数)… -Dapp.path=/apps/ctcc-mcs-api -Dspring.profiles.active=prod -jar app.jar”
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 使用登录名isms登录运营门户服务器
+2. 进入运营门户项目路径
+cd /apps/ctcc-mcs-operate
+3. 执行Shell脚本：
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 使用登录名isms登录运营门户服务器
+2. 进入运营门户项目路径
+cd /apps/ctcc-mcs-operate
+3. 执行Shell脚本：
+./run.sh start prod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 输出：
+“启动程序，运行 screen -d -m /usr/bin/java …(JVM参数)… -Dapp.path=/apps/ctcc-mcs-operate -Dspring.profiles.active=prod -jar app.jar”
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 使用登录名isms登录运营门户服务器
+2. 进入运营门户项目路径
+cd /apps/ctcc-mcs-operate
+3. 执行Shell脚本：
+./run.sh restart prod
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 输出：
+“启动程序，运行 screen -d -m /usr/bin/java …(JVM参数)… -Dapp.path=/apps/ctcc-mcs-client -Dspring.profiles.active=prod -jar app.jar”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 输出：
+“启动程序，运行 screen -d -m /usr/bin/java …(JVM参数)… -Dapp.path=/apps/ctcc-mcs-client -Dspring.profiles.active=prod -jar app.jar”
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 使用登录名isms登录打点服务器
+2. 进入打点项目路径
+cd /apps
+3. 执行Shell脚本：
+./run.sh stop
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 输出：
+“启动程序，运行 screen -d -m /usr/bin/java …(JVM参数)… -Dapp.path=/apps -Dspring.profiles.active=prod -jar app.jar”
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用登录名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Lucida Grande"/>
+      </rPr>
+      <t>isms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">登录打点服务器
+2. 进入打点项目路径
+cd /apps
+3. 执行Shell脚本
+./run.sh restart prod
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们在主服务器上执行命令ip a，获取IP地址信息：
+[root@lb-node1 ~]# ip a 
+2: eth0: &lt;BROADCAST,MULTICAST,UP,LOWER_UP&gt; mtu 1500 qdisc pfifo_fast qlen 1000
+    link/ether 00:0c:29:aa:a1:e4 brd ff:ff:ff:ff:ff:ff
+    inet 192.168.1.103/24 brd 255.255.255.255 scope global eth0
+    inet 192.168.1.110/32 scope global eth0
+证明主服务器已经绑定了虚拟ip 192.168.1.110
+在从服务器上执行命令ip a,显示如下：
+[root@lb-node1 ~]# ip a 
+2: eth0: &lt;BROADCAST,MULTICAST,UP,LOWER_UP&gt; mtu 1500 qdisc pfifo_fast qlen 1000
+    link/ether 00:0c:29:2b:94:3b brd ff:ff:ff:ff:ff:ff
+    inet 192.168.1.101/24 brd 255.255.255.255 scope global eth0
+显示表明从服务器上没有绑定vip 192.168.1.110,只有本机真实ip192.168.1.101
+下面我们停止主服务器的nginx进程，再看看ip绑定情况:
+主服务器的情况：
+[root@lb-node1 ~]# systemctl stop keepalived.service
+[root@lb-node1 ~]# ip a 
+2: eth0: &lt;BROADCAST,MULTICAST,UP,LOWER_UP&gt; mtu 1500 qdisc pfifo_fast qlen 1000
+    link/ether 00:0c:29:aa:a1:e4 brd ff:ff:ff:ff:ff:ff
+    inet 192.168.1.103/24 brd 255.255.255.255 scope global eth0
+从服务器的情况：
+[root@lb-node1 ~]# ip a 
+2: eth0: &lt;BROADCAST,MULTICAST,UP,LOWER_UP&gt; mtu 1500 qdisc pfifo_fast qlen 1000
+    link/ether 00:0c:29:2b:94:3b brd ff:ff:ff:ff:ff:ff
+    inet 192.168.1.101/24 brd 255.255.255.255 scope global eth0
+    inet 192.168.1.110/32 scope global eth0
+由此可见vip已经指向了从服务器
+2.
+3.在浏览器打开运营门户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 使用登录名isms登录API服务器
+2. 进入API项目路径
+cd /apps/ctcc-mcs-api/
+3. 执行命令，实时查看日志：
+tail –f logs/ing/sys.log
+4. 重复1-3步，对集群内每台服务器进行操作
+5. 在浏览器，对API服务发送10次get请求：
+（http://host:port）/api/v1/systemTime
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,7 +747,6 @@
       <sz val="7"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <u/>
@@ -836,19 +764,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="81"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="81"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -859,7 +774,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,7 +857,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -966,16 +881,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -985,8 +900,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1281,22 +1199,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="24.44140625" customWidth="1"/>
+    <col min="1" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="52.33203125" customWidth="1"/>
-    <col min="4" max="4" width="53.44140625" customWidth="1"/>
-    <col min="5" max="5" width="39.109375" customWidth="1"/>
+    <col min="4" max="4" width="53.5" customWidth="1"/>
+    <col min="5" max="5" width="39.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="54" customHeight="1">
+    <row r="1" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1313,414 +1231,380 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="66" customHeight="1">
+    <row r="2" spans="1:5" s="11" customFormat="1" ht="397" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="62.4" customHeight="1">
+      <c r="C2" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="11" customFormat="1" ht="397" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="12" customFormat="1" ht="55.8" customHeight="1">
+      <c r="C3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="11" customFormat="1" ht="397" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="12" customFormat="1" ht="70.8" customHeight="1">
+      <c r="C4" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="11" customFormat="1" ht="397" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="106.05" customHeight="1">
+      <c r="C5" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="397" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>31</v>
+      <c r="C6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="109.05" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="397" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>29</v>
+      <c r="C7" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="106.95" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="397" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="66" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="397" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>43</v>
+      <c r="C9" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="99" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="397" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="168" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="397" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="159" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="397" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>53</v>
+      <c r="C12" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="205.95" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="397" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>52</v>
+      <c r="C13" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="115.95" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="397" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="109.95" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="397" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>39</v>
+      <c r="C15" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="126" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="397" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>37</v>
+      <c r="C16" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="126" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="397" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>63</v>
+        <v>40</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="204.6" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="397" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="397" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="69" customHeight="1">
-      <c r="A19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="C19" s="7" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="41.4">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="409.6">
-      <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="397" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="397" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>69</v>
+        <v>38</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="110.4">
-      <c r="A22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>51</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="397" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="147" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="211.05" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="397" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="397" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="397" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="397" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="397" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" ht="397" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1"/>
+    <row r="29" spans="1:5" ht="397" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="B32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1728,7 +1612,5 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>